--- a/rmnd_lca/data/additional_inventories/lci-syngas.xlsx
+++ b/rmnd_lca/data/additional_inventories/lci-syngas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\GitHub\rmnd-lca\rmnd_lca\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05452A6B-1687-467F-BD7B-195A5BC69D3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006004D8-9EB2-4D85-9BCD-03A6EB9FBCFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03A063FC-F9BF-4857-9DAC-DAA9C33A5DE3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="117">
   <si>
     <t>Activity</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>Originally in cubic meter. Composition: 96% CH4, 4% CO2, Density of gas: .708 kg/Nm3. Supplied with China-based hydrogen.</t>
+  </si>
+  <si>
+    <t>RU</t>
   </si>
 </sst>
 </file>
@@ -763,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C0019C-B49E-4DC4-A2B0-0D79853335D0}">
-  <dimension ref="A1:S340"/>
+  <dimension ref="A1:S356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -833,7 +836,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -903,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1003,7 +1006,7 @@
         <v>0.50779661016949151</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -1108,7 +1111,7 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -1178,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -1278,7 +1281,7 @@
         <v>0.50779661016949151</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
@@ -1383,7 +1386,7 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
@@ -1391,7 +1394,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
@@ -1453,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -1553,7 +1556,7 @@
         <v>0.50779661016949151</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -1658,7 +1661,7 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
@@ -1666,7 +1669,7 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
@@ -1728,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
@@ -1828,7 +1831,7 @@
         <v>0.50779661016949151</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -1933,7 +1936,7 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
@@ -1941,7 +1944,7 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
@@ -2003,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -2103,7 +2106,7 @@
         <v>0.50779661016949151</v>
       </c>
       <c r="C80" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -2208,7 +2211,7 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.35">
@@ -2216,7 +2219,7 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
@@ -2278,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -2378,7 +2381,7 @@
         <v>0.50779661016949151</v>
       </c>
       <c r="C96" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -2483,7 +2486,7 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
@@ -2491,7 +2494,7 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.35">
@@ -2553,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -2653,7 +2656,7 @@
         <v>0.50779661016949151</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -2758,7 +2761,7 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.35">
@@ -2766,7 +2769,7 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.35">
@@ -2828,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -2928,7 +2931,7 @@
         <v>0.50779661016949151</v>
       </c>
       <c r="C128" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D128" t="s">
         <v>8</v>
@@ -3033,7 +3036,7 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.35">
@@ -3041,7 +3044,7 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.35">
@@ -3103,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
@@ -3203,7 +3206,7 @@
         <v>0.50779661016949151</v>
       </c>
       <c r="C144" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
@@ -3308,7 +3311,7 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.35">
@@ -3316,7 +3319,7 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.35">
@@ -3378,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D157" t="s">
         <v>8</v>
@@ -3478,7 +3481,7 @@
         <v>0.50779661016949151</v>
       </c>
       <c r="C160" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D160" t="s">
         <v>8</v>
@@ -3583,7 +3586,7 @@
         <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.35">
@@ -3591,7 +3594,7 @@
         <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.35">
@@ -3653,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="D173" t="s">
         <v>8</v>
@@ -3753,7 +3756,7 @@
         <v>0.50779661016949151</v>
       </c>
       <c r="C176" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="D176" t="s">
         <v>8</v>
@@ -3807,6 +3810,9 @@
       <c r="J177" t="s">
         <v>95</v>
       </c>
+      <c r="K177" t="s">
+        <v>28</v>
+      </c>
       <c r="Q177" s="3"/>
       <c r="S177" s="3"/>
     </row>
@@ -3815,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.35">
@@ -3831,7 +3837,7 @@
         <v>3</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.35">
@@ -3847,7 +3853,7 @@
         <v>7</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.35">
@@ -3860,602 +3866,586 @@
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
+        <v>11</v>
+      </c>
+      <c r="B185" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
         <v>106</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A186" s="1" t="s">
+    <row r="187" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
         <v>14</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" t="s">
         <v>15</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C188" t="s">
         <v>9</v>
       </c>
-      <c r="D187" t="s">
-        <v>7</v>
-      </c>
-      <c r="E187" t="s">
+      <c r="D188" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" t="s">
         <v>16</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F188" t="s">
         <v>5</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G188" t="s">
         <v>17</v>
       </c>
-      <c r="H187" t="s">
+      <c r="H188" t="s">
         <v>18</v>
       </c>
-      <c r="I187" t="s">
+      <c r="I188" t="s">
         <v>19</v>
       </c>
-      <c r="J187" t="s">
+      <c r="J188" t="s">
         <v>20</v>
       </c>
-      <c r="K187" t="s">
+      <c r="K188" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A188" s="2" t="s">
+      <c r="L188" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A189" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" t="s">
+        <v>8</v>
+      </c>
+      <c r="E189" t="s">
+        <v>21</v>
+      </c>
+      <c r="F189" t="s">
+        <v>22</v>
+      </c>
+      <c r="J189" t="s">
+        <v>95</v>
+      </c>
+      <c r="K189" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A190" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-      <c r="C188" t="s">
-        <v>10</v>
-      </c>
-      <c r="D188" t="s">
-        <v>7</v>
-      </c>
-      <c r="E188" t="s">
+      <c r="B190">
+        <v>8.06180790960452E-6</v>
+      </c>
+      <c r="C190" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" t="s">
+        <v>24</v>
+      </c>
+      <c r="F190" t="s">
+        <v>25</v>
+      </c>
+      <c r="G190">
+        <v>2</v>
+      </c>
+      <c r="H190">
+        <v>-12.073683905484531</v>
+      </c>
+      <c r="I190">
+        <v>0.41862376226685111</v>
+      </c>
+      <c r="J190" t="s">
+        <v>95</v>
+      </c>
+      <c r="K190" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q190" s="3"/>
+      <c r="S190" s="3"/>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>26</v>
+      </c>
+      <c r="B191">
+        <v>2.768361581920904</v>
+      </c>
+      <c r="C191" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" t="s">
+        <v>8</v>
+      </c>
+      <c r="E191" t="s">
+        <v>24</v>
+      </c>
+      <c r="F191" t="s">
+        <v>25</v>
+      </c>
+      <c r="G191">
+        <v>2</v>
+      </c>
+      <c r="H191">
+        <v>0.67294447324242579</v>
+      </c>
+      <c r="I191">
+        <v>0.20605482541341649</v>
+      </c>
+      <c r="J191" t="s">
+        <v>95</v>
+      </c>
+      <c r="K191" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q191" s="4"/>
+      <c r="S191" s="4"/>
+    </row>
+    <row r="192" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A192" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B192">
+        <v>0.50779661016949151</v>
+      </c>
+      <c r="C192" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" t="s">
+        <v>24</v>
+      </c>
+      <c r="F192" t="s">
+        <v>25</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="J192" t="s">
+        <v>95</v>
+      </c>
+      <c r="K192" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q192" s="3"/>
+      <c r="S192" s="3"/>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>28</v>
+      </c>
+      <c r="B193">
+        <v>1.7655367231638421E-4</v>
+      </c>
+      <c r="C193" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" t="s">
+        <v>24</v>
+      </c>
+      <c r="F193" t="s">
+        <v>25</v>
+      </c>
+      <c r="G193">
+        <v>2</v>
+      </c>
+      <c r="H193">
+        <v>-8.987196820661973</v>
+      </c>
+      <c r="I193">
+        <v>7.4210002559136581E-2</v>
+      </c>
+      <c r="J193" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q193" s="3"/>
+      <c r="S193" s="3"/>
+    </row>
+    <row r="195" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A195" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>2</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>3</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>106</v>
+      </c>
+      <c r="B201" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A202" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>14</v>
+      </c>
+      <c r="B203" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" t="s">
+        <v>16</v>
+      </c>
+      <c r="F203" t="s">
+        <v>5</v>
+      </c>
+      <c r="G203" t="s">
+        <v>17</v>
+      </c>
+      <c r="H203" t="s">
+        <v>18</v>
+      </c>
+      <c r="I203" t="s">
+        <v>19</v>
+      </c>
+      <c r="J203" t="s">
+        <v>20</v>
+      </c>
+      <c r="K203" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A204" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204" t="s">
+        <v>10</v>
+      </c>
+      <c r="D204" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" t="s">
         <v>21</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F204" t="s">
         <v>22</v>
       </c>
-      <c r="J188" t="s">
-        <v>95</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J204" t="s">
+        <v>95</v>
+      </c>
+      <c r="K204" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
         <v>29</v>
       </c>
-      <c r="B189">
+      <c r="B205">
         <v>300</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C205" t="s">
         <v>30</v>
       </c>
-      <c r="D189" t="s">
-        <v>8</v>
-      </c>
-      <c r="E189" t="s">
-        <v>24</v>
-      </c>
-      <c r="F189" t="s">
-        <v>25</v>
-      </c>
-      <c r="G189">
-        <v>2</v>
-      </c>
-      <c r="H189">
+      <c r="D205" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" t="s">
+        <v>24</v>
+      </c>
+      <c r="F205" t="s">
+        <v>25</v>
+      </c>
+      <c r="G205">
+        <v>2</v>
+      </c>
+      <c r="H205">
         <v>5.7037824746562009</v>
       </c>
-      <c r="I189">
+      <c r="I205">
         <v>0.46212945076166601</v>
       </c>
-      <c r="J189" t="s">
+      <c r="J205" t="s">
         <v>31</v>
       </c>
-      <c r="K189" t="s">
+      <c r="K205" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A191" s="1" t="s">
+    <row r="207" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A207" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>2</v>
-      </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>2</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
         <v>3</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B209" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
         <v>5</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B210" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>7</v>
-      </c>
-      <c r="B195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
         <v>9</v>
       </c>
-      <c r="B196" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
+      <c r="B212" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
         <v>106</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B213" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A198" s="1" t="s">
+    <row r="214" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A214" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
         <v>14</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B215" t="s">
         <v>15</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C215" t="s">
         <v>9</v>
       </c>
-      <c r="D199" t="s">
-        <v>7</v>
-      </c>
-      <c r="E199" t="s">
+      <c r="D215" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" t="s">
         <v>16</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F215" t="s">
         <v>5</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G215" t="s">
         <v>17</v>
       </c>
-      <c r="H199" t="s">
+      <c r="H215" t="s">
         <v>18</v>
       </c>
-      <c r="I199" t="s">
+      <c r="I215" t="s">
         <v>19</v>
       </c>
-      <c r="J199" t="s">
+      <c r="J215" t="s">
         <v>33</v>
       </c>
-      <c r="K199" t="s">
+      <c r="K215" t="s">
         <v>34</v>
       </c>
-      <c r="L199" t="s">
+      <c r="L215" t="s">
         <v>20</v>
       </c>
-      <c r="M199" t="s">
+      <c r="M215" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
         <v>35</v>
       </c>
-      <c r="B200">
-        <v>1</v>
-      </c>
-      <c r="D200" t="s">
-        <v>8</v>
-      </c>
-      <c r="E200" t="s">
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="D216" t="s">
+        <v>8</v>
+      </c>
+      <c r="E216" t="s">
         <v>36</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F216" t="s">
         <v>37</v>
       </c>
-      <c r="G200">
+      <c r="G216">
         <v>0</v>
       </c>
-      <c r="H200">
-        <v>1</v>
-      </c>
-      <c r="L200" t="s">
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="L216" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A201" s="2" t="s">
+    <row r="217" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A217" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B201">
-        <v>1</v>
-      </c>
-      <c r="C201" t="s">
-        <v>10</v>
-      </c>
-      <c r="D201" t="s">
-        <v>8</v>
-      </c>
-      <c r="E201" t="s">
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>10</v>
+      </c>
+      <c r="D217" t="s">
+        <v>8</v>
+      </c>
+      <c r="E217" t="s">
         <v>39</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F217" t="s">
         <v>22</v>
       </c>
-      <c r="L201" t="s">
-        <v>95</v>
-      </c>
-      <c r="M201" s="2" t="s">
+      <c r="L217" t="s">
+        <v>95</v>
+      </c>
+      <c r="M217" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
         <v>40</v>
       </c>
-      <c r="B202">
-        <v>1</v>
-      </c>
-      <c r="C202" t="s">
-        <v>10</v>
-      </c>
-      <c r="D202" t="s">
-        <v>7</v>
-      </c>
-      <c r="E202" t="s">
-        <v>24</v>
-      </c>
-      <c r="F202" t="s">
-        <v>25</v>
-      </c>
-      <c r="G202">
-        <v>2</v>
-      </c>
-      <c r="H202">
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" t="s">
+        <v>24</v>
+      </c>
+      <c r="F218" t="s">
+        <v>25</v>
+      </c>
+      <c r="G218">
+        <v>2</v>
+      </c>
+      <c r="H218">
         <v>0</v>
-      </c>
-      <c r="I202">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="L202" t="s">
-        <v>95</v>
-      </c>
-      <c r="M202" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>41</v>
-      </c>
-      <c r="B203">
-        <v>3.5596899999999999E-3</v>
-      </c>
-      <c r="C203" t="s">
-        <v>30</v>
-      </c>
-      <c r="D203" t="s">
-        <v>8</v>
-      </c>
-      <c r="E203" t="s">
-        <v>24</v>
-      </c>
-      <c r="F203" t="s">
-        <v>25</v>
-      </c>
-      <c r="G203">
-        <v>2</v>
-      </c>
-      <c r="H203">
-        <v>-5.6380818165614492</v>
-      </c>
-      <c r="I203">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="L203" t="s">
-        <v>31</v>
-      </c>
-      <c r="M203" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>43</v>
-      </c>
-      <c r="B204">
-        <v>0.37</v>
-      </c>
-      <c r="C204" t="s">
-        <v>94</v>
-      </c>
-      <c r="D204" t="s">
-        <v>44</v>
-      </c>
-      <c r="E204" t="s">
-        <v>45</v>
-      </c>
-      <c r="F204" t="s">
-        <v>25</v>
-      </c>
-      <c r="G204">
-        <v>2</v>
-      </c>
-      <c r="H204">
-        <v>-0.9942522733438669</v>
-      </c>
-      <c r="I204">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="L204" t="s">
-        <v>31</v>
-      </c>
-      <c r="M204" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A206" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>2</v>
-      </c>
-      <c r="B207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>3</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B209" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
-        <v>7</v>
-      </c>
-      <c r="B210" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
-        <v>9</v>
-      </c>
-      <c r="B211" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
-        <v>106</v>
-      </c>
-      <c r="B212" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A213" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
-        <v>14</v>
-      </c>
-      <c r="B214" t="s">
-        <v>15</v>
-      </c>
-      <c r="C214" t="s">
-        <v>7</v>
-      </c>
-      <c r="D214" t="s">
-        <v>9</v>
-      </c>
-      <c r="E214" t="s">
-        <v>16</v>
-      </c>
-      <c r="F214" t="s">
-        <v>5</v>
-      </c>
-      <c r="G214" t="s">
-        <v>17</v>
-      </c>
-      <c r="H214" t="s">
-        <v>18</v>
-      </c>
-      <c r="I214" t="s">
-        <v>19</v>
-      </c>
-      <c r="J214" t="s">
-        <v>3</v>
-      </c>
-      <c r="K214" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A215" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B215">
-        <v>1</v>
-      </c>
-      <c r="C215" t="s">
-        <v>7</v>
-      </c>
-      <c r="D215" t="s">
-        <v>10</v>
-      </c>
-      <c r="E215" t="s">
-        <v>39</v>
-      </c>
-      <c r="F215" t="s">
-        <v>22</v>
-      </c>
-      <c r="J215" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K215" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A216" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B216">
-        <v>1.09529E-7</v>
-      </c>
-      <c r="C216" t="s">
-        <v>7</v>
-      </c>
-      <c r="D216" t="s">
-        <v>10</v>
-      </c>
-      <c r="E216" t="s">
-        <v>24</v>
-      </c>
-      <c r="F216" t="s">
-        <v>25</v>
-      </c>
-      <c r="G216">
-        <v>2</v>
-      </c>
-      <c r="H216">
-        <v>-16.027076482571179</v>
-      </c>
-      <c r="I216">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K216" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A217" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B217">
-        <v>1.09529E-7</v>
-      </c>
-      <c r="C217" t="s">
-        <v>7</v>
-      </c>
-      <c r="D217" t="s">
-        <v>10</v>
-      </c>
-      <c r="E217" t="s">
-        <v>24</v>
-      </c>
-      <c r="F217" t="s">
-        <v>25</v>
-      </c>
-      <c r="G217">
-        <v>2</v>
-      </c>
-      <c r="H217">
-        <v>-16.027076482571179</v>
-      </c>
-      <c r="I217">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K217" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A218" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B218">
-        <v>1.09529E-7</v>
-      </c>
-      <c r="C218" t="s">
-        <v>7</v>
-      </c>
-      <c r="D218" t="s">
-        <v>10</v>
-      </c>
-      <c r="E218" t="s">
-        <v>24</v>
-      </c>
-      <c r="F218" t="s">
-        <v>25</v>
-      </c>
-      <c r="G218">
-        <v>2</v>
-      </c>
-      <c r="H218">
-        <v>-16.027076482571179</v>
       </c>
       <c r="I218">
         <v>0.54930614433405478</v>
       </c>
-      <c r="K218" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A219" s="2" t="s">
-        <v>50</v>
+      <c r="L218" t="s">
+        <v>95</v>
+      </c>
+      <c r="M218" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>41</v>
       </c>
       <c r="B219">
-        <v>1.09529E-7</v>
+        <v>3.5596899999999999E-3</v>
       </c>
       <c r="C219" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D219" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E219" t="s">
         <v>24</v>
@@ -4467,30 +4457,33 @@
         <v>2</v>
       </c>
       <c r="H219">
-        <v>-16.027076482571179</v>
+        <v>-5.6380818165614492</v>
       </c>
       <c r="I219">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K219" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.439508208471609E-2</v>
+      </c>
+      <c r="L219" t="s">
+        <v>31</v>
+      </c>
+      <c r="M219" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B220">
-        <v>1.09529E-7</v>
+        <v>0.37</v>
       </c>
       <c r="C220" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="D220" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E220" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F220" t="s">
         <v>25</v>
@@ -4499,216 +4492,219 @@
         <v>2</v>
       </c>
       <c r="H220">
-        <v>-16.027076482571179</v>
+        <v>-0.9942522733438669</v>
       </c>
       <c r="I220">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K220" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
-        <v>52</v>
-      </c>
-      <c r="B221">
-        <v>1.09529E-7</v>
-      </c>
-      <c r="C221" t="s">
-        <v>7</v>
-      </c>
-      <c r="D221" t="s">
-        <v>10</v>
-      </c>
-      <c r="E221" t="s">
-        <v>24</v>
-      </c>
-      <c r="F221" t="s">
-        <v>25</v>
-      </c>
-      <c r="G221">
-        <v>2</v>
-      </c>
-      <c r="H221">
-        <v>-16.027076482571179</v>
-      </c>
-      <c r="I221">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K221" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A222" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B222">
-        <v>1.09529E-7</v>
-      </c>
-      <c r="C222" t="s">
-        <v>7</v>
-      </c>
-      <c r="D222" t="s">
-        <v>10</v>
-      </c>
-      <c r="E222" t="s">
-        <v>24</v>
-      </c>
-      <c r="F222" t="s">
-        <v>25</v>
-      </c>
-      <c r="G222">
-        <v>2</v>
-      </c>
-      <c r="H222">
-        <v>-16.027076482571179</v>
-      </c>
-      <c r="I222">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K222" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A224" s="1" t="s">
+        <v>2.439508208471609E-2</v>
+      </c>
+      <c r="L220" t="s">
+        <v>31</v>
+      </c>
+      <c r="M220" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>47</v>
+      <c r="B222" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>2</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>3</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>2</v>
-      </c>
-      <c r="B225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="B225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>3</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="B226" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
-        <v>9</v>
-      </c>
-      <c r="B229" t="s">
-        <v>10</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A229" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="B230" t="s">
-        <v>107</v>
+        <v>15</v>
+      </c>
+      <c r="C230" t="s">
+        <v>7</v>
+      </c>
+      <c r="D230" t="s">
+        <v>9</v>
+      </c>
+      <c r="E230" t="s">
+        <v>16</v>
+      </c>
+      <c r="F230" t="s">
+        <v>5</v>
+      </c>
+      <c r="G230" t="s">
+        <v>17</v>
+      </c>
+      <c r="H230" t="s">
+        <v>18</v>
+      </c>
+      <c r="I230" t="s">
+        <v>19</v>
+      </c>
+      <c r="J230" t="s">
+        <v>3</v>
+      </c>
+      <c r="K230" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A231" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
-        <v>14</v>
-      </c>
-      <c r="B232" t="s">
-        <v>15</v>
+      <c r="A231" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>7</v>
+      </c>
+      <c r="D231" t="s">
+        <v>10</v>
+      </c>
+      <c r="E231" t="s">
+        <v>39</v>
+      </c>
+      <c r="F231" t="s">
+        <v>22</v>
+      </c>
+      <c r="J231" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K231" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A232" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B232">
+        <v>1.09529E-7</v>
       </c>
       <c r="C232" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D232" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F232" t="s">
-        <v>5</v>
-      </c>
-      <c r="G232" t="s">
-        <v>17</v>
-      </c>
-      <c r="H232" t="s">
-        <v>18</v>
-      </c>
-      <c r="I232" t="s">
-        <v>19</v>
-      </c>
-      <c r="J232" t="s">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="G232">
+        <v>2</v>
+      </c>
+      <c r="H232">
+        <v>-16.027076482571179</v>
+      </c>
+      <c r="I232">
+        <v>0.54930614433405478</v>
       </c>
       <c r="K232" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>1.09529E-7</v>
       </c>
       <c r="C233" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D233" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E233" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F233" t="s">
-        <v>22</v>
-      </c>
-      <c r="J233" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="G233">
+        <v>2</v>
+      </c>
+      <c r="H233">
+        <v>-16.027076482571179</v>
+      </c>
+      <c r="I233">
+        <v>0.54930614433405478</v>
       </c>
       <c r="K233" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
-        <v>54</v>
+    <row r="234" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A234" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B234">
-        <v>13000</v>
+        <v>1.09529E-7</v>
       </c>
       <c r="C234" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D234" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E234" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F234" t="s">
         <v>25</v>
@@ -4717,33 +4713,30 @@
         <v>2</v>
       </c>
       <c r="H234">
-        <v>9.4727046364436731</v>
+        <v>-16.027076482571179</v>
       </c>
       <c r="I234">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J234" t="s">
-        <v>56</v>
+        <v>0.54930614433405478</v>
       </c>
       <c r="K234" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
-        <v>57</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A235" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B235">
-        <v>500</v>
+        <v>1.09529E-7</v>
       </c>
       <c r="C235" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D235" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E235" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F235" t="s">
         <v>25</v>
@@ -4752,33 +4745,30 @@
         <v>2</v>
       </c>
       <c r="H235">
-        <v>6.2146080984221914</v>
+        <v>-16.027076482571179</v>
       </c>
       <c r="I235">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J235" t="s">
-        <v>58</v>
+        <v>0.54930614433405478</v>
       </c>
       <c r="K235" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B236">
-        <v>500</v>
+        <v>1.09529E-7</v>
       </c>
       <c r="C236" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D236" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E236" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F236" t="s">
         <v>25</v>
@@ -4787,33 +4777,30 @@
         <v>2</v>
       </c>
       <c r="H236">
-        <v>6.2146080984221914</v>
+        <v>-16.027076482571179</v>
       </c>
       <c r="I236">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J236" t="s">
-        <v>60</v>
+        <v>0.54930614433405478</v>
       </c>
       <c r="K236" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B237">
-        <v>120</v>
+        <v>1.09529E-7</v>
       </c>
       <c r="C237" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D237" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E237" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F237" t="s">
         <v>25</v>
@@ -4822,33 +4809,30 @@
         <v>2</v>
       </c>
       <c r="H237">
-        <v>4.7874917427820458</v>
+        <v>-16.027076482571179</v>
       </c>
       <c r="I237">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J237" t="s">
-        <v>62</v>
+        <v>0.54930614433405478</v>
       </c>
       <c r="K237" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
-        <v>63</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A238" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B238">
-        <v>15000</v>
+        <v>1.09529E-7</v>
       </c>
       <c r="C238" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D238" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E238" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F238" t="s">
         <v>25</v>
@@ -4857,16 +4841,13 @@
         <v>2</v>
       </c>
       <c r="H238">
-        <v>9.6158054800843473</v>
+        <v>-16.027076482571179</v>
       </c>
       <c r="I238">
-        <v>0.2126338677021721</v>
-      </c>
-      <c r="J238" t="s">
-        <v>63</v>
+        <v>0.54930614433405478</v>
       </c>
       <c r="K238" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -4874,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.35">
@@ -4890,7 +4871,7 @@
         <v>3</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.35">
@@ -4967,7 +4948,7 @@
     </row>
     <row r="249" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -4985,7 +4966,7 @@
         <v>22</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K249" t="s">
         <v>95</v>
@@ -4993,19 +4974,19 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>13000</v>
       </c>
       <c r="C250" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D250" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E250" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F250" t="s">
         <v>25</v>
@@ -5014,13 +4995,13 @@
         <v>2</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>9.4727046364436731</v>
       </c>
       <c r="I250">
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J250" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K250" t="s">
         <v>31</v>
@@ -5028,10 +5009,10 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B251">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="C251" t="s">
         <v>10</v>
@@ -5040,7 +5021,7 @@
         <v>8</v>
       </c>
       <c r="E251" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F251" t="s">
         <v>25</v>
@@ -5049,13 +5030,13 @@
         <v>2</v>
       </c>
       <c r="H251">
-        <v>3.912023005428146</v>
+        <v>6.2146080984221914</v>
       </c>
       <c r="I251">
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J251" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K251" t="s">
         <v>31</v>
@@ -5063,19 +5044,19 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B252">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="C252" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D252" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E252" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F252" t="s">
         <v>25</v>
@@ -5084,13 +5065,13 @@
         <v>2</v>
       </c>
       <c r="H252">
-        <v>0.69314718055994529</v>
+        <v>6.2146080984221914</v>
       </c>
       <c r="I252">
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J252" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K252" t="s">
         <v>31</v>
@@ -5098,19 +5079,19 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B253">
-        <v>80000</v>
+        <v>120</v>
       </c>
       <c r="C253" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D253" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="E253" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F253" t="s">
         <v>25</v>
@@ -5119,13 +5100,13 @@
         <v>2</v>
       </c>
       <c r="H253">
-        <v>11.28978191365602</v>
+        <v>4.7874917427820458</v>
       </c>
       <c r="I253">
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J253" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K253" t="s">
         <v>31</v>
@@ -5133,19 +5114,19 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>15000</v>
       </c>
       <c r="C254" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D254" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="E254" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F254" t="s">
         <v>25</v>
@@ -5154,13 +5135,13 @@
         <v>2</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>9.6158054800843473</v>
       </c>
       <c r="I254">
-        <v>2.439508208471609E-2</v>
+        <v>0.2126338677021721</v>
       </c>
       <c r="J254" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K254" t="s">
         <v>31</v>
@@ -5171,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.35">
@@ -5187,7 +5168,7 @@
         <v>3</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.35">
@@ -5264,7 +5245,7 @@
     </row>
     <row r="265" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -5282,7 +5263,7 @@
         <v>22</v>
       </c>
       <c r="J265" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K265" t="s">
         <v>95</v>
@@ -5290,16 +5271,16 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B266">
-        <v>854</v>
+        <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D266" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E266" t="s">
         <v>24</v>
@@ -5311,13 +5292,13 @@
         <v>2</v>
       </c>
       <c r="H266">
-        <v>6.7499311937885702</v>
+        <v>0</v>
       </c>
       <c r="I266">
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J266" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K266" t="s">
         <v>31</v>
@@ -5325,10 +5306,10 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B267">
-        <v>454</v>
+        <v>50</v>
       </c>
       <c r="C267" t="s">
         <v>10</v>
@@ -5346,248 +5327,251 @@
         <v>2</v>
       </c>
       <c r="H267">
-        <v>6.1180971980413483</v>
+        <v>3.912023005428146</v>
       </c>
       <c r="I267">
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J267" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K267" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A269" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>50</v>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>69</v>
+      </c>
+      <c r="B268">
+        <v>2</v>
+      </c>
+      <c r="C268" t="s">
+        <v>30</v>
+      </c>
+      <c r="D268" t="s">
+        <v>7</v>
+      </c>
+      <c r="E268" t="s">
+        <v>24</v>
+      </c>
+      <c r="F268" t="s">
+        <v>25</v>
+      </c>
+      <c r="G268">
+        <v>2</v>
+      </c>
+      <c r="H268">
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="I268">
+        <v>2.439508208471609E-2</v>
+      </c>
+      <c r="J268" t="s">
+        <v>70</v>
+      </c>
+      <c r="K268" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>71</v>
+      </c>
+      <c r="B269">
+        <v>80000</v>
+      </c>
+      <c r="C269" t="s">
+        <v>72</v>
+      </c>
+      <c r="D269" t="s">
+        <v>73</v>
+      </c>
+      <c r="E269" t="s">
+        <v>24</v>
+      </c>
+      <c r="F269" t="s">
+        <v>25</v>
+      </c>
+      <c r="G269">
+        <v>2</v>
+      </c>
+      <c r="H269">
+        <v>11.28978191365602</v>
+      </c>
+      <c r="I269">
+        <v>2.439508208471609E-2</v>
+      </c>
+      <c r="J269" t="s">
+        <v>71</v>
+      </c>
+      <c r="K269" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="B270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
-        <v>3</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A272" t="s">
-        <v>5</v>
-      </c>
-      <c r="B272" t="s">
-        <v>6</v>
+      <c r="C270" t="s">
+        <v>72</v>
+      </c>
+      <c r="D270" t="s">
+        <v>7</v>
+      </c>
+      <c r="E270" t="s">
+        <v>24</v>
+      </c>
+      <c r="F270" t="s">
+        <v>25</v>
+      </c>
+      <c r="G270">
+        <v>2</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>2.439508208471609E-2</v>
+      </c>
+      <c r="J270" t="s">
+        <v>74</v>
+      </c>
+      <c r="K270" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A272" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>7</v>
-      </c>
-      <c r="B273" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>9</v>
-      </c>
-      <c r="B274" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B275" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A276" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>7</v>
+      </c>
+      <c r="B276" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B277" t="s">
-        <v>15</v>
-      </c>
-      <c r="C277" t="s">
-        <v>9</v>
-      </c>
-      <c r="D277" t="s">
-        <v>7</v>
-      </c>
-      <c r="E277" t="s">
-        <v>16</v>
-      </c>
-      <c r="F277" t="s">
-        <v>5</v>
-      </c>
-      <c r="G277" t="s">
-        <v>17</v>
-      </c>
-      <c r="H277" t="s">
-        <v>18</v>
-      </c>
-      <c r="I277" t="s">
-        <v>19</v>
-      </c>
-      <c r="J277" t="s">
-        <v>3</v>
-      </c>
-      <c r="K277" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A278" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B278">
-        <v>1</v>
-      </c>
-      <c r="C278" t="s">
-        <v>10</v>
-      </c>
-      <c r="D278" t="s">
-        <v>7</v>
-      </c>
-      <c r="E278" t="s">
-        <v>39</v>
-      </c>
-      <c r="F278" t="s">
-        <v>22</v>
-      </c>
-      <c r="K278" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
-        <v>75</v>
-      </c>
-      <c r="B279">
-        <v>9000</v>
-      </c>
-      <c r="C279" t="s">
-        <v>10</v>
-      </c>
-      <c r="D279" t="s">
-        <v>8</v>
-      </c>
-      <c r="E279" t="s">
-        <v>24</v>
-      </c>
-      <c r="F279" t="s">
-        <v>25</v>
-      </c>
-      <c r="G279">
-        <v>2</v>
-      </c>
-      <c r="H279">
-        <v>9000</v>
-      </c>
-      <c r="I279">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J279" t="s">
-        <v>76</v>
-      </c>
-      <c r="K279" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>106</v>
+      </c>
+      <c r="B278" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A279" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>77</v>
-      </c>
-      <c r="B280">
-        <v>3.54</v>
+        <v>14</v>
+      </c>
+      <c r="B280" t="s">
+        <v>15</v>
       </c>
       <c r="C280" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D280" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E280" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F280" t="s">
-        <v>25</v>
-      </c>
-      <c r="G280">
-        <v>2</v>
-      </c>
-      <c r="H280">
-        <v>1.2641267271456831</v>
-      </c>
-      <c r="I280">
-        <v>5.6664342653501683E-2</v>
+        <v>5</v>
+      </c>
+      <c r="G280" t="s">
+        <v>17</v>
+      </c>
+      <c r="H280" t="s">
+        <v>18</v>
+      </c>
+      <c r="I280" t="s">
+        <v>19</v>
       </c>
       <c r="J280" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="K280" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
-        <v>79</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A281" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B281">
-        <v>1180</v>
+        <v>1</v>
       </c>
       <c r="C281" t="s">
         <v>10</v>
       </c>
       <c r="D281" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E281" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F281" t="s">
-        <v>25</v>
-      </c>
-      <c r="G281">
-        <v>2</v>
-      </c>
-      <c r="H281">
-        <v>7.0732697174597101</v>
-      </c>
-      <c r="I281">
-        <v>5.6664342653501683E-2</v>
-      </c>
-      <c r="J281" t="s">
-        <v>80</v>
+        <v>22</v>
+      </c>
+      <c r="J281" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="K281" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B282">
-        <v>1180</v>
+        <v>854</v>
       </c>
       <c r="C282" t="s">
         <v>10</v>
@@ -5605,13 +5589,13 @@
         <v>2</v>
       </c>
       <c r="H282">
-        <v>7.0732697174597101</v>
+        <v>6.7499311937885702</v>
       </c>
       <c r="I282">
-        <v>5.6664342653501683E-2</v>
+        <v>2.439508208471609E-2</v>
       </c>
       <c r="J282" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K282" t="s">
         <v>31</v>
@@ -5619,16 +5603,16 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B283">
-        <v>1418</v>
+        <v>454</v>
       </c>
       <c r="C283" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D283" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="E283" t="s">
         <v>24</v>
@@ -5640,216 +5624,213 @@
         <v>2</v>
       </c>
       <c r="H283">
-        <v>7.2570027070920728</v>
+        <v>6.1180971980413483</v>
       </c>
       <c r="I283">
-        <v>5.6664342653501683E-2</v>
+        <v>2.439508208471609E-2</v>
       </c>
       <c r="J283" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="K283" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A284" t="s">
-        <v>63</v>
-      </c>
-      <c r="B284">
-        <v>1000</v>
-      </c>
-      <c r="C284" t="s">
-        <v>10</v>
-      </c>
-      <c r="D284" t="s">
-        <v>64</v>
-      </c>
-      <c r="E284" t="s">
-        <v>24</v>
-      </c>
-      <c r="F284" t="s">
-        <v>25</v>
-      </c>
-      <c r="G284">
-        <v>2</v>
-      </c>
-      <c r="H284">
-        <v>6.9077552789821368</v>
-      </c>
-      <c r="I284">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J284" t="s">
-        <v>63</v>
-      </c>
-      <c r="K284" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A285" t="s">
-        <v>63</v>
-      </c>
-      <c r="B285">
-        <v>118</v>
-      </c>
-      <c r="C285" t="s">
-        <v>10</v>
-      </c>
-      <c r="D285" t="s">
-        <v>64</v>
-      </c>
-      <c r="E285" t="s">
-        <v>24</v>
-      </c>
-      <c r="F285" t="s">
-        <v>25</v>
-      </c>
-      <c r="G285">
-        <v>2</v>
-      </c>
-      <c r="H285">
-        <v>4.7706846244656651</v>
-      </c>
-      <c r="I285">
-        <v>5.6664342653501683E-2</v>
-      </c>
-      <c r="J285" t="s">
-        <v>63</v>
-      </c>
-      <c r="K285" t="s">
-        <v>31</v>
+    <row r="285" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A285" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>2</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A287" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>51</v>
+      <c r="A287" t="s">
+        <v>3</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>2</v>
-      </c>
-      <c r="B288">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B288" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B289" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B290" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="B291" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
-        <v>9</v>
-      </c>
-      <c r="B292" t="s">
-        <v>10</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A292" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="B293" t="s">
-        <v>107</v>
+        <v>15</v>
+      </c>
+      <c r="C293" t="s">
+        <v>9</v>
+      </c>
+      <c r="D293" t="s">
+        <v>7</v>
+      </c>
+      <c r="E293" t="s">
+        <v>16</v>
+      </c>
+      <c r="F293" t="s">
+        <v>5</v>
+      </c>
+      <c r="G293" t="s">
+        <v>17</v>
+      </c>
+      <c r="H293" t="s">
+        <v>18</v>
+      </c>
+      <c r="I293" t="s">
+        <v>19</v>
+      </c>
+      <c r="J293" t="s">
+        <v>3</v>
+      </c>
+      <c r="K293" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="294" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A294" s="1" t="s">
-        <v>13</v>
+      <c r="A294" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294" t="s">
+        <v>10</v>
+      </c>
+      <c r="D294" t="s">
+        <v>7</v>
+      </c>
+      <c r="E294" t="s">
+        <v>39</v>
+      </c>
+      <c r="F294" t="s">
+        <v>22</v>
+      </c>
+      <c r="K294" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>14</v>
-      </c>
-      <c r="B295" t="s">
-        <v>15</v>
+        <v>75</v>
+      </c>
+      <c r="B295">
+        <v>9000</v>
       </c>
       <c r="C295" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D295" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E295" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F295" t="s">
-        <v>5</v>
-      </c>
-      <c r="G295" t="s">
-        <v>17</v>
-      </c>
-      <c r="H295" t="s">
-        <v>18</v>
-      </c>
-      <c r="I295" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="G295">
+        <v>2</v>
+      </c>
+      <c r="H295">
+        <v>9000</v>
+      </c>
+      <c r="I295">
+        <v>2.439508208471609E-2</v>
       </c>
       <c r="J295" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="K295" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B296">
-        <v>1</v>
+        <v>3.54</v>
       </c>
       <c r="C296" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="D296" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E296" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F296" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="G296">
+        <v>2</v>
+      </c>
+      <c r="H296">
+        <v>1.2641267271456831</v>
+      </c>
+      <c r="I296">
+        <v>5.6664342653501683E-2</v>
       </c>
       <c r="J296" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="K296" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B297">
-        <v>2000</v>
+        <v>1180</v>
       </c>
       <c r="C297" t="s">
         <v>10</v>
@@ -5867,13 +5848,13 @@
         <v>2</v>
       </c>
       <c r="H297">
-        <v>2000</v>
+        <v>7.0732697174597101</v>
       </c>
       <c r="I297">
-        <v>2.439508208471609E-2</v>
+        <v>5.6664342653501683E-2</v>
       </c>
       <c r="J297" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K297" t="s">
         <v>31</v>
@@ -5881,16 +5862,16 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B298">
-        <v>2000</v>
+        <v>1180</v>
       </c>
       <c r="C298" t="s">
         <v>10</v>
       </c>
       <c r="D298" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="E298" t="s">
         <v>24</v>
@@ -5902,449 +5883,449 @@
         <v>2</v>
       </c>
       <c r="H298">
-        <v>7.6009024595420822</v>
+        <v>7.0732697174597101</v>
       </c>
       <c r="I298">
-        <v>0.3465735902799727</v>
+        <v>5.6664342653501683E-2</v>
       </c>
       <c r="J298" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K298" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A300" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>52</v>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>81</v>
+      </c>
+      <c r="B299">
+        <v>1418</v>
+      </c>
+      <c r="C299" t="s">
+        <v>72</v>
+      </c>
+      <c r="D299" t="s">
+        <v>64</v>
+      </c>
+      <c r="E299" t="s">
+        <v>24</v>
+      </c>
+      <c r="F299" t="s">
+        <v>25</v>
+      </c>
+      <c r="G299">
+        <v>2</v>
+      </c>
+      <c r="H299">
+        <v>7.2570027070920728</v>
+      </c>
+      <c r="I299">
+        <v>5.6664342653501683E-2</v>
+      </c>
+      <c r="J299" t="s">
+        <v>82</v>
+      </c>
+      <c r="K299" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>63</v>
+      </c>
+      <c r="B300">
+        <v>1000</v>
+      </c>
+      <c r="C300" t="s">
+        <v>10</v>
+      </c>
+      <c r="D300" t="s">
+        <v>64</v>
+      </c>
+      <c r="E300" t="s">
+        <v>24</v>
+      </c>
+      <c r="F300" t="s">
+        <v>25</v>
+      </c>
+      <c r="G300">
+        <v>2</v>
+      </c>
+      <c r="H300">
+        <v>6.9077552789821368</v>
+      </c>
+      <c r="I300">
+        <v>2.439508208471609E-2</v>
+      </c>
+      <c r="J300" t="s">
+        <v>63</v>
+      </c>
+      <c r="K300" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A302" t="s">
-        <v>3</v>
-      </c>
-      <c r="B302" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A303" t="s">
-        <v>5</v>
-      </c>
-      <c r="B303" t="s">
-        <v>6</v>
+        <v>118</v>
+      </c>
+      <c r="C301" t="s">
+        <v>10</v>
+      </c>
+      <c r="D301" t="s">
+        <v>64</v>
+      </c>
+      <c r="E301" t="s">
+        <v>24</v>
+      </c>
+      <c r="F301" t="s">
+        <v>25</v>
+      </c>
+      <c r="G301">
+        <v>2</v>
+      </c>
+      <c r="H301">
+        <v>4.7706846244656651</v>
+      </c>
+      <c r="I301">
+        <v>5.6664342653501683E-2</v>
+      </c>
+      <c r="J301" t="s">
+        <v>63</v>
+      </c>
+      <c r="K301" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A303" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>7</v>
-      </c>
-      <c r="B304" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B305" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B306" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A307" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>7</v>
+      </c>
+      <c r="B307" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B308" t="s">
-        <v>15</v>
-      </c>
-      <c r="C308" t="s">
-        <v>9</v>
-      </c>
-      <c r="D308" t="s">
-        <v>7</v>
-      </c>
-      <c r="E308" t="s">
-        <v>16</v>
-      </c>
-      <c r="F308" t="s">
-        <v>5</v>
-      </c>
-      <c r="G308" t="s">
-        <v>17</v>
-      </c>
-      <c r="H308" t="s">
-        <v>18</v>
-      </c>
-      <c r="I308" t="s">
-        <v>19</v>
-      </c>
-      <c r="J308" t="s">
-        <v>3</v>
-      </c>
-      <c r="K308" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>52</v>
-      </c>
-      <c r="B309">
-        <v>1</v>
-      </c>
-      <c r="C309" t="s">
-        <v>10</v>
-      </c>
-      <c r="D309" t="s">
-        <v>7</v>
-      </c>
-      <c r="E309" t="s">
-        <v>39</v>
-      </c>
-      <c r="F309" t="s">
-        <v>22</v>
-      </c>
-      <c r="J309" t="s">
-        <v>52</v>
-      </c>
-      <c r="K309" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A310" t="s">
-        <v>83</v>
-      </c>
-      <c r="B310">
-        <v>0.17</v>
-      </c>
-      <c r="C310" t="s">
-        <v>10</v>
-      </c>
-      <c r="D310" t="s">
-        <v>7</v>
-      </c>
-      <c r="E310" t="s">
-        <v>24</v>
-      </c>
-      <c r="F310" t="s">
-        <v>25</v>
-      </c>
-      <c r="G310">
-        <v>2</v>
-      </c>
-      <c r="H310">
-        <v>-1.771956841931875</v>
-      </c>
-      <c r="I310">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="J310" t="s">
-        <v>84</v>
-      </c>
-      <c r="K310" t="s">
-        <v>31</v>
+        <v>106</v>
+      </c>
+      <c r="B309" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A310" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>85</v>
-      </c>
-      <c r="B311">
-        <v>125</v>
+        <v>14</v>
+      </c>
+      <c r="B311" t="s">
+        <v>15</v>
       </c>
       <c r="C311" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D311" t="s">
         <v>7</v>
       </c>
       <c r="E311" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F311" t="s">
-        <v>25</v>
-      </c>
-      <c r="G311">
-        <v>2</v>
-      </c>
-      <c r="H311">
-        <v>4.8283137373023024</v>
-      </c>
-      <c r="I311">
-        <v>0.54930614433405478</v>
+        <v>5</v>
+      </c>
+      <c r="G311" t="s">
+        <v>17</v>
+      </c>
+      <c r="H311" t="s">
+        <v>18</v>
+      </c>
+      <c r="I311" t="s">
+        <v>19</v>
       </c>
       <c r="J311" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="K311" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B312">
-        <v>818</v>
+        <v>1</v>
       </c>
       <c r="C312" t="s">
         <v>10</v>
       </c>
       <c r="D312" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E312" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F312" t="s">
-        <v>25</v>
-      </c>
-      <c r="G312">
-        <v>2</v>
-      </c>
-      <c r="H312">
-        <v>6.7068623366027467</v>
-      </c>
-      <c r="I312">
+        <v>22</v>
+      </c>
+      <c r="J312" t="s">
+        <v>51</v>
+      </c>
+      <c r="K312" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>59</v>
+      </c>
+      <c r="B313">
+        <v>2000</v>
+      </c>
+      <c r="C313" t="s">
+        <v>10</v>
+      </c>
+      <c r="D313" t="s">
+        <v>8</v>
+      </c>
+      <c r="E313" t="s">
+        <v>24</v>
+      </c>
+      <c r="F313" t="s">
+        <v>25</v>
+      </c>
+      <c r="G313">
+        <v>2</v>
+      </c>
+      <c r="H313">
+        <v>2000</v>
+      </c>
+      <c r="I313">
         <v>2.439508208471609E-2</v>
       </c>
-      <c r="J312" t="s">
+      <c r="J313" t="s">
         <v>60</v>
       </c>
-      <c r="K312" t="s">
+      <c r="K313" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A314" s="1" t="s">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>63</v>
+      </c>
+      <c r="B314">
+        <v>2000</v>
+      </c>
+      <c r="C314" t="s">
+        <v>10</v>
+      </c>
+      <c r="D314" t="s">
+        <v>64</v>
+      </c>
+      <c r="E314" t="s">
+        <v>24</v>
+      </c>
+      <c r="F314" t="s">
+        <v>25</v>
+      </c>
+      <c r="G314">
+        <v>2</v>
+      </c>
+      <c r="H314">
+        <v>7.6009024595420822</v>
+      </c>
+      <c r="I314">
+        <v>0.3465735902799727</v>
+      </c>
+      <c r="J314" t="s">
+        <v>63</v>
+      </c>
+      <c r="K314" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A316" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B314" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A315" t="s">
-        <v>2</v>
-      </c>
-      <c r="B315">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A316" t="s">
-        <v>3</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>53</v>
+      <c r="B316" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>5</v>
-      </c>
-      <c r="B317" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B318" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B319" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="B320" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A321" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>9</v>
+      </c>
+      <c r="B321" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="B322" t="s">
-        <v>15</v>
-      </c>
-      <c r="C322" t="s">
-        <v>9</v>
-      </c>
-      <c r="D322" t="s">
-        <v>7</v>
-      </c>
-      <c r="E322" t="s">
-        <v>16</v>
-      </c>
-      <c r="F322" t="s">
-        <v>5</v>
-      </c>
-      <c r="G322" t="s">
-        <v>17</v>
-      </c>
-      <c r="H322" t="s">
-        <v>18</v>
-      </c>
-      <c r="I322" t="s">
-        <v>19</v>
-      </c>
-      <c r="J322" t="s">
-        <v>3</v>
-      </c>
-      <c r="K322" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="323" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A323" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B323">
-        <v>1</v>
-      </c>
-      <c r="C323" t="s">
-        <v>10</v>
-      </c>
-      <c r="D323" t="s">
-        <v>7</v>
-      </c>
-      <c r="E323" t="s">
-        <v>39</v>
-      </c>
-      <c r="F323" t="s">
-        <v>22</v>
-      </c>
-      <c r="J323" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K323" t="s">
-        <v>95</v>
+      <c r="A323" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>88</v>
-      </c>
-      <c r="B324">
-        <v>97.5</v>
+        <v>14</v>
+      </c>
+      <c r="B324" t="s">
+        <v>15</v>
       </c>
       <c r="C324" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D324" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E324" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F324" t="s">
-        <v>25</v>
-      </c>
-      <c r="G324">
-        <v>2</v>
-      </c>
-      <c r="H324">
-        <v>4.5798523780038014</v>
-      </c>
-      <c r="I324">
-        <v>2.439508208471609E-2</v>
+        <v>5</v>
+      </c>
+      <c r="G324" t="s">
+        <v>17</v>
+      </c>
+      <c r="H324" t="s">
+        <v>18</v>
+      </c>
+      <c r="I324" t="s">
+        <v>19</v>
       </c>
       <c r="J324" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="K324" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B325">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="C325" t="s">
         <v>10</v>
       </c>
       <c r="D325" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E325" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F325" t="s">
-        <v>25</v>
-      </c>
-      <c r="G325">
-        <v>2</v>
-      </c>
-      <c r="H325">
-        <v>8.0063675676502459</v>
-      </c>
-      <c r="I325">
-        <v>2.439508208471609E-2</v>
+        <v>22</v>
       </c>
       <c r="J325" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K325" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B326">
-        <v>52.5</v>
+        <v>0.17</v>
       </c>
       <c r="C326" t="s">
         <v>10</v>
       </c>
       <c r="D326" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E326" t="s">
         <v>24</v>
@@ -6356,13 +6337,13 @@
         <v>2</v>
       </c>
       <c r="H326">
-        <v>3.9608131695975781</v>
+        <v>-1.771956841931875</v>
       </c>
       <c r="I326">
-        <v>2.439508208471609E-2</v>
+        <v>0.54930614433405478</v>
       </c>
       <c r="J326" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="K326" t="s">
         <v>31</v>
@@ -6370,16 +6351,16 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B327">
-        <v>4000</v>
+        <v>125</v>
       </c>
       <c r="C327" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="D327" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="E327" t="s">
         <v>24</v>
@@ -6391,207 +6372,504 @@
         <v>2</v>
       </c>
       <c r="H327">
-        <v>8.2940496401020276</v>
+        <v>4.8283137373023024</v>
       </c>
       <c r="I327">
-        <v>0.3465735902799727</v>
+        <v>0.54930614433405478</v>
       </c>
       <c r="J327" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="K327" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A329" s="1" t="s">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>87</v>
+      </c>
+      <c r="B328">
+        <v>818</v>
+      </c>
+      <c r="C328" t="s">
+        <v>10</v>
+      </c>
+      <c r="D328" t="s">
+        <v>8</v>
+      </c>
+      <c r="E328" t="s">
+        <v>24</v>
+      </c>
+      <c r="F328" t="s">
+        <v>25</v>
+      </c>
+      <c r="G328">
+        <v>2</v>
+      </c>
+      <c r="H328">
+        <v>6.7068623366027467</v>
+      </c>
+      <c r="I328">
+        <v>2.439508208471609E-2</v>
+      </c>
+      <c r="J328" t="s">
+        <v>60</v>
+      </c>
+      <c r="K328" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A330" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B329" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A330" t="s">
-        <v>2</v>
-      </c>
-      <c r="B330">
-        <v>1</v>
+      <c r="B330" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
+        <v>2</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
         <v>3</v>
       </c>
-      <c r="B331" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A332" t="s">
-        <v>5</v>
-      </c>
-      <c r="B332" t="s">
-        <v>6</v>
+      <c r="B332" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B333" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B334" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
+        <v>9</v>
+      </c>
+      <c r="B335" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
         <v>106</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B336" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A336" s="1" t="s">
+    <row r="337" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A337" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A337" t="s">
-        <v>14</v>
-      </c>
-      <c r="B337" t="s">
-        <v>15</v>
-      </c>
-      <c r="C337" t="s">
-        <v>9</v>
-      </c>
-      <c r="D337" t="s">
-        <v>7</v>
-      </c>
-      <c r="E337" t="s">
-        <v>16</v>
-      </c>
-      <c r="F337" t="s">
-        <v>5</v>
-      </c>
-      <c r="G337" t="s">
-        <v>17</v>
-      </c>
-      <c r="H337" t="s">
-        <v>18</v>
-      </c>
-      <c r="I337" t="s">
-        <v>19</v>
-      </c>
-      <c r="J337" t="s">
-        <v>3</v>
-      </c>
-      <c r="K337" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>28</v>
-      </c>
-      <c r="B338">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B338" t="s">
+        <v>15</v>
       </c>
       <c r="C338" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D338" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E338" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F338" t="s">
+        <v>5</v>
+      </c>
+      <c r="G338" t="s">
+        <v>17</v>
+      </c>
+      <c r="H338" t="s">
+        <v>18</v>
+      </c>
+      <c r="I338" t="s">
+        <v>19</v>
+      </c>
+      <c r="J338" t="s">
+        <v>3</v>
+      </c>
+      <c r="K338" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A339" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+      <c r="C339" t="s">
+        <v>10</v>
+      </c>
+      <c r="D339" t="s">
+        <v>7</v>
+      </c>
+      <c r="E339" t="s">
+        <v>39</v>
+      </c>
+      <c r="F339" t="s">
         <v>22</v>
       </c>
-      <c r="J338" t="s">
-        <v>28</v>
-      </c>
-      <c r="K338" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A339" t="s">
-        <v>90</v>
-      </c>
-      <c r="B339">
-        <v>0.81</v>
-      </c>
-      <c r="C339" t="s">
-        <v>30</v>
-      </c>
-      <c r="D339" t="s">
-        <v>8</v>
-      </c>
-      <c r="E339" t="s">
-        <v>24</v>
-      </c>
-      <c r="F339" t="s">
-        <v>25</v>
-      </c>
-      <c r="G339">
-        <v>2</v>
-      </c>
-      <c r="H339">
-        <v>-0.21072103131565251</v>
-      </c>
-      <c r="I339">
-        <v>0.30759281954511669</v>
-      </c>
-      <c r="J339" t="s">
-        <v>91</v>
+      <c r="J339" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="K339" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
+        <v>88</v>
+      </c>
+      <c r="B340">
+        <v>97.5</v>
+      </c>
+      <c r="C340" t="s">
+        <v>10</v>
+      </c>
+      <c r="D340" t="s">
+        <v>8</v>
+      </c>
+      <c r="E340" t="s">
+        <v>24</v>
+      </c>
+      <c r="F340" t="s">
+        <v>25</v>
+      </c>
+      <c r="G340">
+        <v>2</v>
+      </c>
+      <c r="H340">
+        <v>4.5798523780038014</v>
+      </c>
+      <c r="I340">
+        <v>2.439508208471609E-2</v>
+      </c>
+      <c r="J340" t="s">
+        <v>89</v>
+      </c>
+      <c r="K340" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>59</v>
+      </c>
+      <c r="B341">
+        <v>3000</v>
+      </c>
+      <c r="C341" t="s">
+        <v>10</v>
+      </c>
+      <c r="D341" t="s">
+        <v>8</v>
+      </c>
+      <c r="E341" t="s">
+        <v>24</v>
+      </c>
+      <c r="F341" t="s">
+        <v>25</v>
+      </c>
+      <c r="G341">
+        <v>2</v>
+      </c>
+      <c r="H341">
+        <v>8.0063675676502459</v>
+      </c>
+      <c r="I341">
+        <v>2.439508208471609E-2</v>
+      </c>
+      <c r="J341" t="s">
+        <v>60</v>
+      </c>
+      <c r="K341" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>61</v>
+      </c>
+      <c r="B342">
+        <v>52.5</v>
+      </c>
+      <c r="C342" t="s">
+        <v>10</v>
+      </c>
+      <c r="D342" t="s">
+        <v>8</v>
+      </c>
+      <c r="E342" t="s">
+        <v>24</v>
+      </c>
+      <c r="F342" t="s">
+        <v>25</v>
+      </c>
+      <c r="G342">
+        <v>2</v>
+      </c>
+      <c r="H342">
+        <v>3.9608131695975781</v>
+      </c>
+      <c r="I342">
+        <v>2.439508208471609E-2</v>
+      </c>
+      <c r="J342" t="s">
+        <v>62</v>
+      </c>
+      <c r="K342" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>63</v>
+      </c>
+      <c r="B343">
+        <v>4000</v>
+      </c>
+      <c r="C343" t="s">
+        <v>10</v>
+      </c>
+      <c r="D343" t="s">
+        <v>64</v>
+      </c>
+      <c r="E343" t="s">
+        <v>24</v>
+      </c>
+      <c r="F343" t="s">
+        <v>25</v>
+      </c>
+      <c r="G343">
+        <v>2</v>
+      </c>
+      <c r="H343">
+        <v>8.2940496401020276</v>
+      </c>
+      <c r="I343">
+        <v>0.3465735902799727</v>
+      </c>
+      <c r="J343" t="s">
+        <v>63</v>
+      </c>
+      <c r="K343" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A345" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>2</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>3</v>
+      </c>
+      <c r="B347" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>5</v>
+      </c>
+      <c r="B348" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>7</v>
+      </c>
+      <c r="B349" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>106</v>
+      </c>
+      <c r="B351" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A352" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>14</v>
+      </c>
+      <c r="B353" t="s">
+        <v>15</v>
+      </c>
+      <c r="C353" t="s">
+        <v>9</v>
+      </c>
+      <c r="D353" t="s">
+        <v>7</v>
+      </c>
+      <c r="E353" t="s">
+        <v>16</v>
+      </c>
+      <c r="F353" t="s">
+        <v>5</v>
+      </c>
+      <c r="G353" t="s">
+        <v>17</v>
+      </c>
+      <c r="H353" t="s">
+        <v>18</v>
+      </c>
+      <c r="I353" t="s">
+        <v>19</v>
+      </c>
+      <c r="J353" t="s">
+        <v>3</v>
+      </c>
+      <c r="K353" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>28</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354" t="s">
+        <v>10</v>
+      </c>
+      <c r="D354" t="s">
+        <v>8</v>
+      </c>
+      <c r="E354" t="s">
+        <v>21</v>
+      </c>
+      <c r="F354" t="s">
+        <v>22</v>
+      </c>
+      <c r="J354" t="s">
+        <v>28</v>
+      </c>
+      <c r="K354" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>90</v>
+      </c>
+      <c r="B355">
+        <v>0.81</v>
+      </c>
+      <c r="C355" t="s">
+        <v>30</v>
+      </c>
+      <c r="D355" t="s">
+        <v>8</v>
+      </c>
+      <c r="E355" t="s">
+        <v>24</v>
+      </c>
+      <c r="F355" t="s">
+        <v>25</v>
+      </c>
+      <c r="G355">
+        <v>2</v>
+      </c>
+      <c r="H355">
+        <v>-0.21072103131565251</v>
+      </c>
+      <c r="I355">
+        <v>0.30759281954511669</v>
+      </c>
+      <c r="J355" t="s">
+        <v>91</v>
+      </c>
+      <c r="K355" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
         <v>92</v>
       </c>
-      <c r="B340">
+      <c r="B356">
         <v>0.19</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C356" t="s">
         <v>30</v>
       </c>
-      <c r="D340" t="s">
-        <v>8</v>
-      </c>
-      <c r="E340" t="s">
-        <v>24</v>
-      </c>
-      <c r="F340" t="s">
-        <v>25</v>
-      </c>
-      <c r="G340">
-        <v>2</v>
-      </c>
-      <c r="H340">
+      <c r="D356" t="s">
+        <v>8</v>
+      </c>
+      <c r="E356" t="s">
+        <v>24</v>
+      </c>
+      <c r="F356" t="s">
+        <v>25</v>
+      </c>
+      <c r="G356">
+        <v>2</v>
+      </c>
+      <c r="H356">
         <v>-1.6607312068216511</v>
       </c>
-      <c r="I340">
+      <c r="I356">
         <v>0.31028824386255488</v>
       </c>
-      <c r="J340" t="s">
+      <c r="J356" t="s">
         <v>93</v>
       </c>
-      <c r="K340" t="s">
+      <c r="K356" t="s">
         <v>31</v>
       </c>
     </row>

--- a/rmnd_lca/data/additional_inventories/lci-syngas.xlsx
+++ b/rmnd_lca/data/additional_inventories/lci-syngas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\GitHub\rmnd-lca\rmnd_lca\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006004D8-9EB2-4D85-9BCD-03A6EB9FBCFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4754064-F17E-447B-9EF2-EB8FC5BDB2CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03A063FC-F9BF-4857-9DAC-DAA9C33A5DE3}"/>
   </bookViews>
@@ -769,7 +769,7 @@
   <dimension ref="A1:S356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/rmnd_lca/data/additional_inventories/lci-syngas.xlsx
+++ b/rmnd_lca/data/additional_inventories/lci-syngas.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\GitHub\rmnd-lca\rmnd_lca\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\rmnd-lca\rmnd_lca\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4754064-F17E-447B-9EF2-EB8FC5BDB2CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03A063FC-F9BF-4857-9DAC-DAA9C33A5DE3}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -140,12 +139,6 @@
     <t>maximum</t>
   </si>
   <si>
-    <t>Carbon dioxide, in air</t>
-  </si>
-  <si>
-    <t>natural resource::in air</t>
-  </si>
-  <si>
     <t>biosphere</t>
   </si>
   <si>
@@ -384,12 +377,18 @@
   </si>
   <si>
     <t>RU</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, to soil or biomass stock</t>
+  </si>
+  <si>
+    <t>soil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
@@ -765,33 +764,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C0019C-B49E-4DC4-A2B0-0D79853335D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="I242" sqref="I242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="79.7265625" customWidth="1"/>
+    <col min="1" max="1" width="79.77734375" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -807,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -815,7 +814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -823,7 +822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -831,36 +830,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -898,7 +897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -906,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -918,13 +917,13 @@
         <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -953,7 +952,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>23</v>
@@ -961,7 +960,7 @@
       <c r="Q14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -990,7 +989,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K15" t="s">
         <v>26</v>
@@ -998,7 +997,7 @@
       <c r="Q15" s="4"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1006,7 +1005,7 @@
         <v>0.50779661016949151</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -1021,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>27</v>
@@ -1029,7 +1028,7 @@
       <c r="Q16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1058,7 +1057,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s">
         <v>28</v>
@@ -1066,7 +1065,7 @@
       <c r="Q17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1082,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +1089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1098,7 +1097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1106,36 +1105,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
@@ -1181,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -1193,13 +1192,13 @@
         <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +1227,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>23</v>
@@ -1236,7 +1235,7 @@
       <c r="Q30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1265,7 +1264,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K31" t="s">
         <v>26</v>
@@ -1273,7 +1272,7 @@
       <c r="Q31" s="4"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -1281,7 +1280,7 @@
         <v>0.50779661016949151</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
@@ -1296,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>27</v>
@@ -1304,7 +1303,7 @@
       <c r="Q32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1333,7 +1332,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s">
         <v>28</v>
@@ -1341,7 +1340,7 @@
       <c r="Q33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -1349,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1365,7 +1364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1373,7 +1372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1381,36 +1380,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
       <c r="B41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -1448,7 +1447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>1</v>
       </c>
@@ -1456,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -1468,13 +1467,13 @@
         <v>22</v>
       </c>
       <c r="J45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
@@ -1503,7 +1502,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>23</v>
@@ -1511,7 +1510,7 @@
       <c r="Q46" s="3"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -1540,7 +1539,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K47" t="s">
         <v>26</v>
@@ -1548,7 +1547,7 @@
       <c r="Q47" s="4"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>27</v>
       </c>
@@ -1556,7 +1555,7 @@
         <v>0.50779661016949151</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -1571,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>27</v>
@@ -1579,7 +1578,7 @@
       <c r="Q48" s="3"/>
       <c r="S48" s="3"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -1608,7 +1607,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s">
         <v>28</v>
@@ -1616,7 +1615,7 @@
       <c r="Q49" s="3"/>
       <c r="S49" s="3"/>
     </row>
-    <row r="51" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -1632,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1640,7 +1639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1648,7 +1647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -1656,36 +1655,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -1723,7 +1722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>1</v>
       </c>
@@ -1731,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
@@ -1743,13 +1742,13 @@
         <v>22</v>
       </c>
       <c r="J61" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>23</v>
       </c>
@@ -1778,7 +1777,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J62" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>23</v>
@@ -1786,7 +1785,7 @@
       <c r="Q62" s="3"/>
       <c r="S62" s="3"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -1815,7 +1814,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J63" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K63" t="s">
         <v>26</v>
@@ -1823,7 +1822,7 @@
       <c r="Q63" s="4"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>27</v>
       </c>
@@ -1831,7 +1830,7 @@
         <v>0.50779661016949151</v>
       </c>
       <c r="C64" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -1846,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>27</v>
@@ -1854,7 +1853,7 @@
       <c r="Q64" s="3"/>
       <c r="S64" s="3"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -1883,7 +1882,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J65" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K65" t="s">
         <v>28</v>
@@ -1891,7 +1890,7 @@
       <c r="Q65" s="3"/>
       <c r="S65" s="3"/>
     </row>
-    <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -1899,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -1907,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -1915,7 +1914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -1923,7 +1922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -1931,36 +1930,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -1998,7 +1997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>1</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -2018,13 +2017,13 @@
         <v>22</v>
       </c>
       <c r="J77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>23</v>
       </c>
@@ -2053,7 +2052,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J78" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>23</v>
@@ -2061,7 +2060,7 @@
       <c r="Q78" s="3"/>
       <c r="S78" s="3"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -2090,7 +2089,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J79" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K79" t="s">
         <v>26</v>
@@ -2098,7 +2097,7 @@
       <c r="Q79" s="4"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>27</v>
       </c>
@@ -2106,7 +2105,7 @@
         <v>0.50779661016949151</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -2121,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>27</v>
@@ -2129,7 +2128,7 @@
       <c r="Q80" s="3"/>
       <c r="S80" s="3"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>28</v>
       </c>
@@ -2158,7 +2157,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J81" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K81" t="s">
         <v>28</v>
@@ -2166,7 +2165,7 @@
       <c r="Q81" s="3"/>
       <c r="S81" s="3"/>
     </row>
-    <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -2174,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -2182,7 +2181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -2190,7 +2189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -2198,7 +2197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -2206,36 +2205,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2273,7 +2272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
@@ -2281,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -2293,13 +2292,13 @@
         <v>22</v>
       </c>
       <c r="J93" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>23</v>
       </c>
@@ -2328,7 +2327,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J94" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>23</v>
@@ -2336,7 +2335,7 @@
       <c r="Q94" s="3"/>
       <c r="S94" s="3"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -2365,7 +2364,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K95" t="s">
         <v>26</v>
@@ -2373,7 +2372,7 @@
       <c r="Q95" s="4"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>27</v>
       </c>
@@ -2381,7 +2380,7 @@
         <v>0.50779661016949151</v>
       </c>
       <c r="C96" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -2396,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>27</v>
@@ -2404,7 +2403,7 @@
       <c r="Q96" s="3"/>
       <c r="S96" s="3"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>28</v>
       </c>
@@ -2433,7 +2432,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K97" t="s">
         <v>28</v>
@@ -2441,7 +2440,7 @@
       <c r="Q97" s="3"/>
       <c r="S97" s="3"/>
     </row>
-    <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -2449,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -2457,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -2465,7 +2464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -2473,7 +2472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -2481,36 +2480,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -2548,7 +2547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>1</v>
       </c>
@@ -2556,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -2568,13 +2567,13 @@
         <v>22</v>
       </c>
       <c r="J109" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>23</v>
       </c>
@@ -2603,7 +2602,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J110" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>23</v>
@@ -2611,7 +2610,7 @@
       <c r="Q110" s="3"/>
       <c r="S110" s="3"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>26</v>
       </c>
@@ -2640,7 +2639,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J111" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K111" t="s">
         <v>26</v>
@@ -2648,7 +2647,7 @@
       <c r="Q111" s="4"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>27</v>
       </c>
@@ -2656,7 +2655,7 @@
         <v>0.50779661016949151</v>
       </c>
       <c r="C112" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -2671,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>27</v>
@@ -2679,7 +2678,7 @@
       <c r="Q112" s="3"/>
       <c r="S112" s="3"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>28</v>
       </c>
@@ -2708,7 +2707,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J113" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K113" t="s">
         <v>28</v>
@@ -2716,7 +2715,7 @@
       <c r="Q113" s="3"/>
       <c r="S113" s="3"/>
     </row>
-    <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
@@ -2724,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -2732,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -2740,7 +2739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -2748,7 +2747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -2756,7 +2755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -2764,28 +2763,28 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B122" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -2823,7 +2822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>1</v>
       </c>
@@ -2843,13 +2842,13 @@
         <v>22</v>
       </c>
       <c r="J125" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>23</v>
       </c>
@@ -2878,7 +2877,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J126" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>23</v>
@@ -2886,7 +2885,7 @@
       <c r="Q126" s="3"/>
       <c r="S126" s="3"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -2915,7 +2914,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J127" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K127" t="s">
         <v>26</v>
@@ -2923,7 +2922,7 @@
       <c r="Q127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>27</v>
       </c>
@@ -2946,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>27</v>
@@ -2954,7 +2953,7 @@
       <c r="Q128" s="3"/>
       <c r="S128" s="3"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>28</v>
       </c>
@@ -2983,7 +2982,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J129" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K129" t="s">
         <v>28</v>
@@ -2991,7 +2990,7 @@
       <c r="Q129" s="3"/>
       <c r="S129" s="3"/>
     </row>
-    <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
@@ -2999,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -3007,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -3015,7 +3014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -3023,7 +3022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -3031,36 +3030,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B138" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>14</v>
       </c>
@@ -3098,7 +3097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>1</v>
       </c>
@@ -3106,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
@@ -3118,13 +3117,13 @@
         <v>22</v>
       </c>
       <c r="J141" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K141" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>23</v>
       </c>
@@ -3153,7 +3152,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J142" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>23</v>
@@ -3161,7 +3160,7 @@
       <c r="Q142" s="3"/>
       <c r="S142" s="3"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>26</v>
       </c>
@@ -3190,7 +3189,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J143" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K143" t="s">
         <v>26</v>
@@ -3198,7 +3197,7 @@
       <c r="Q143" s="4"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>27</v>
       </c>
@@ -3206,7 +3205,7 @@
         <v>0.50779661016949151</v>
       </c>
       <c r="C144" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
@@ -3221,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>27</v>
@@ -3229,7 +3228,7 @@
       <c r="Q144" s="3"/>
       <c r="S144" s="3"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>28</v>
       </c>
@@ -3258,7 +3257,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J145" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K145" t="s">
         <v>28</v>
@@ -3266,7 +3265,7 @@
       <c r="Q145" s="3"/>
       <c r="S145" s="3"/>
     </row>
-    <row r="147" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>0</v>
       </c>
@@ -3274,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -3282,7 +3281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>3</v>
       </c>
@@ -3290,7 +3289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -3298,7 +3297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -3306,36 +3305,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B154" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -3373,7 +3372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>1</v>
       </c>
@@ -3381,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D157" t="s">
         <v>8</v>
@@ -3393,13 +3392,13 @@
         <v>22</v>
       </c>
       <c r="J157" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>23</v>
       </c>
@@ -3428,7 +3427,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J158" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>23</v>
@@ -3436,7 +3435,7 @@
       <c r="Q158" s="3"/>
       <c r="S158" s="3"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>26</v>
       </c>
@@ -3465,7 +3464,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J159" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K159" t="s">
         <v>26</v>
@@ -3473,7 +3472,7 @@
       <c r="Q159" s="4"/>
       <c r="S159" s="4"/>
     </row>
-    <row r="160" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>27</v>
       </c>
@@ -3481,7 +3480,7 @@
         <v>0.50779661016949151</v>
       </c>
       <c r="C160" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D160" t="s">
         <v>8</v>
@@ -3496,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K160" s="2" t="s">
         <v>27</v>
@@ -3504,7 +3503,7 @@
       <c r="Q160" s="3"/>
       <c r="S160" s="3"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>28</v>
       </c>
@@ -3533,7 +3532,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J161" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K161" t="s">
         <v>28</v>
@@ -3541,7 +3540,7 @@
       <c r="Q161" s="3"/>
       <c r="S161" s="3"/>
     </row>
-    <row r="163" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>0</v>
       </c>
@@ -3549,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>2</v>
       </c>
@@ -3557,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>3</v>
       </c>
@@ -3565,7 +3564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -3573,7 +3572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -3581,36 +3580,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B170" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -3648,7 +3647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>1</v>
       </c>
@@ -3656,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D173" t="s">
         <v>8</v>
@@ -3668,13 +3667,13 @@
         <v>22</v>
       </c>
       <c r="J173" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K173" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>23</v>
       </c>
@@ -3703,7 +3702,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J174" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K174" s="2" t="s">
         <v>23</v>
@@ -3711,7 +3710,7 @@
       <c r="Q174" s="3"/>
       <c r="S174" s="3"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>26</v>
       </c>
@@ -3740,7 +3739,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J175" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K175" t="s">
         <v>26</v>
@@ -3748,7 +3747,7 @@
       <c r="Q175" s="4"/>
       <c r="S175" s="4"/>
     </row>
-    <row r="176" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>27</v>
       </c>
@@ -3756,7 +3755,7 @@
         <v>0.50779661016949151</v>
       </c>
       <c r="C176" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D176" t="s">
         <v>8</v>
@@ -3771,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K176" s="2" t="s">
         <v>27</v>
@@ -3779,7 +3778,7 @@
       <c r="Q176" s="3"/>
       <c r="S176" s="3"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>28</v>
       </c>
@@ -3808,7 +3807,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J177" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K177" t="s">
         <v>28</v>
@@ -3816,7 +3815,7 @@
       <c r="Q177" s="3"/>
       <c r="S177" s="3"/>
     </row>
-    <row r="179" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>0</v>
       </c>
@@ -3824,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -3832,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>3</v>
       </c>
@@ -3840,7 +3839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -3848,7 +3847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -3856,7 +3855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>9</v>
       </c>
@@ -3864,7 +3863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -3872,20 +3871,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B186" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="187" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -3923,7 +3922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>1</v>
       </c>
@@ -3943,13 +3942,13 @@
         <v>22</v>
       </c>
       <c r="J189" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K189" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>23</v>
       </c>
@@ -3978,7 +3977,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J190" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K190" s="2" t="s">
         <v>23</v>
@@ -3986,7 +3985,7 @@
       <c r="Q190" s="3"/>
       <c r="S190" s="3"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>26</v>
       </c>
@@ -4015,7 +4014,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J191" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K191" t="s">
         <v>26</v>
@@ -4023,7 +4022,7 @@
       <c r="Q191" s="4"/>
       <c r="S191" s="4"/>
     </row>
-    <row r="192" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>27</v>
       </c>
@@ -4046,7 +4045,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K192" s="2" t="s">
         <v>27</v>
@@ -4054,7 +4053,7 @@
       <c r="Q192" s="3"/>
       <c r="S192" s="3"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>28</v>
       </c>
@@ -4083,12 +4082,12 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J193" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q193" s="3"/>
       <c r="S193" s="3"/>
     </row>
-    <row r="195" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>0</v>
       </c>
@@ -4096,7 +4095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>2</v>
       </c>
@@ -4104,7 +4103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>3</v>
       </c>
@@ -4112,7 +4111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -4120,7 +4119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -4128,7 +4127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>9</v>
       </c>
@@ -4136,20 +4135,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B201" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="202" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -4184,7 +4183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>23</v>
       </c>
@@ -4204,13 +4203,13 @@
         <v>22</v>
       </c>
       <c r="J204" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K204" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>29</v>
       </c>
@@ -4245,7 +4244,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>0</v>
       </c>
@@ -4253,7 +4252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>2</v>
       </c>
@@ -4261,7 +4260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>3</v>
       </c>
@@ -4269,7 +4268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -4277,7 +4276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -4285,7 +4284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>9</v>
       </c>
@@ -4293,20 +4292,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B213" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>14</v>
       </c>
@@ -4347,21 +4346,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
+        <v>115</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="D216" t="s">
+        <v>8</v>
+      </c>
+      <c r="E216" t="s">
+        <v>116</v>
+      </c>
+      <c r="F216" t="s">
         <v>35</v>
-      </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-      <c r="D216" t="s">
-        <v>8</v>
-      </c>
-      <c r="E216" t="s">
-        <v>36</v>
-      </c>
-      <c r="F216" t="s">
-        <v>37</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -4370,10 +4369,10 @@
         <v>1</v>
       </c>
       <c r="L216" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>26</v>
       </c>
@@ -4387,21 +4386,21 @@
         <v>8</v>
       </c>
       <c r="E217" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F217" t="s">
         <v>22</v>
       </c>
       <c r="L217" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M217" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -4428,15 +4427,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="L218" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M218" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B219">
         <v>3.5596899999999999E-3</v>
@@ -4466,24 +4465,24 @@
         <v>31</v>
       </c>
       <c r="M219" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B220">
         <v>0.37</v>
       </c>
       <c r="C220" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D220" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E220" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F220" t="s">
         <v>25</v>
@@ -4501,18 +4500,18 @@
         <v>31</v>
       </c>
       <c r="M220" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>2</v>
       </c>
@@ -4520,15 +4519,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>3</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>5</v>
       </c>
@@ -4536,7 +4535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -4544,7 +4543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -4552,20 +4551,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B228" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>14</v>
       </c>
@@ -4600,9 +4599,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -4614,21 +4613,21 @@
         <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F231" t="s">
         <v>22</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K231" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B232">
         <v>1.09529E-7</v>
@@ -4655,12 +4654,12 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K232" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B233">
         <v>1.09529E-7</v>
@@ -4687,12 +4686,12 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K233" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B234">
         <v>1.09529E-7</v>
@@ -4719,12 +4718,12 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K234" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B235">
         <v>1.09529E-7</v>
@@ -4751,12 +4750,12 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K235" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B236">
         <v>1.09529E-7</v>
@@ -4783,12 +4782,12 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K236" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B237">
         <v>1.09529E-7</v>
@@ -4815,12 +4814,12 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K237" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B238">
         <v>1.09529E-7</v>
@@ -4847,18 +4846,18 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K238" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>2</v>
       </c>
@@ -4866,15 +4865,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>3</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -4882,7 +4881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -4890,7 +4889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>9</v>
       </c>
@@ -4898,20 +4897,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B246" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>14</v>
       </c>
@@ -4946,9 +4945,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -4960,33 +4959,33 @@
         <v>7</v>
       </c>
       <c r="E249" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F249" t="s">
         <v>22</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K249" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B250">
         <v>13000</v>
       </c>
       <c r="C250" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D250" t="s">
         <v>8</v>
       </c>
       <c r="E250" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F250" t="s">
         <v>25</v>
@@ -5001,15 +5000,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J250" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K250" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B251">
         <v>500</v>
@@ -5021,7 +5020,7 @@
         <v>8</v>
       </c>
       <c r="E251" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F251" t="s">
         <v>25</v>
@@ -5036,15 +5035,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J251" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K251" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B252">
         <v>500</v>
@@ -5056,7 +5055,7 @@
         <v>8</v>
       </c>
       <c r="E252" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F252" t="s">
         <v>25</v>
@@ -5071,15 +5070,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J252" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K252" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B253">
         <v>120</v>
@@ -5091,7 +5090,7 @@
         <v>8</v>
       </c>
       <c r="E253" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F253" t="s">
         <v>25</v>
@@ -5106,15 +5105,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J253" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K253" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B254">
         <v>15000</v>
@@ -5123,10 +5122,10 @@
         <v>10</v>
       </c>
       <c r="D254" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E254" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F254" t="s">
         <v>25</v>
@@ -5141,21 +5140,21 @@
         <v>0.2126338677021721</v>
       </c>
       <c r="J254" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K254" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>2</v>
       </c>
@@ -5163,15 +5162,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>3</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -5179,7 +5178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -5187,7 +5186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>9</v>
       </c>
@@ -5195,20 +5194,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B262" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>14</v>
       </c>
@@ -5243,9 +5242,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -5257,21 +5256,21 @@
         <v>7</v>
       </c>
       <c r="E265" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F265" t="s">
         <v>22</v>
       </c>
       <c r="J265" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K265" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -5298,15 +5297,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J266" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K266" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B267">
         <v>50</v>
@@ -5333,15 +5332,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J267" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K267" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B268">
         <v>2</v>
@@ -5368,24 +5367,24 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J268" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K268" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B269">
         <v>80000</v>
       </c>
       <c r="C269" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D269" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E269" t="s">
         <v>24</v>
@@ -5403,21 +5402,21 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J269" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K269" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B270">
         <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D270" t="s">
         <v>7</v>
@@ -5438,21 +5437,21 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J270" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K270" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>2</v>
       </c>
@@ -5460,15 +5459,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>3</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>5</v>
       </c>
@@ -5476,7 +5475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -5484,7 +5483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>9</v>
       </c>
@@ -5492,20 +5491,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B278" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>14</v>
       </c>
@@ -5540,9 +5539,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -5554,21 +5553,21 @@
         <v>7</v>
       </c>
       <c r="E281" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F281" t="s">
         <v>22</v>
       </c>
       <c r="J281" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K281" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B282">
         <v>854</v>
@@ -5595,15 +5594,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J282" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K282" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B283">
         <v>454</v>
@@ -5630,21 +5629,21 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J283" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K283" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>2</v>
       </c>
@@ -5652,15 +5651,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>3</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>5</v>
       </c>
@@ -5668,7 +5667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -5676,7 +5675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>9</v>
       </c>
@@ -5684,20 +5683,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B291" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>14</v>
       </c>
@@ -5732,9 +5731,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -5746,18 +5745,18 @@
         <v>7</v>
       </c>
       <c r="E294" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F294" t="s">
         <v>22</v>
       </c>
       <c r="K294" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B295">
         <v>9000</v>
@@ -5784,21 +5783,21 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J295" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K295" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B296">
         <v>3.54</v>
       </c>
       <c r="C296" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D296" t="s">
         <v>8</v>
@@ -5819,15 +5818,15 @@
         <v>5.6664342653501683E-2</v>
       </c>
       <c r="J296" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K296" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B297">
         <v>1180</v>
@@ -5854,15 +5853,15 @@
         <v>5.6664342653501683E-2</v>
       </c>
       <c r="J297" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K297" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B298">
         <v>1180</v>
@@ -5889,24 +5888,24 @@
         <v>5.6664342653501683E-2</v>
       </c>
       <c r="J298" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K298" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B299">
         <v>1418</v>
       </c>
       <c r="C299" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D299" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E299" t="s">
         <v>24</v>
@@ -5924,15 +5923,15 @@
         <v>5.6664342653501683E-2</v>
       </c>
       <c r="J299" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K299" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B300">
         <v>1000</v>
@@ -5941,7 +5940,7 @@
         <v>10</v>
       </c>
       <c r="D300" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E300" t="s">
         <v>24</v>
@@ -5959,15 +5958,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J300" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K300" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B301">
         <v>118</v>
@@ -5976,7 +5975,7 @@
         <v>10</v>
       </c>
       <c r="D301" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E301" t="s">
         <v>24</v>
@@ -5994,21 +5993,21 @@
         <v>5.6664342653501683E-2</v>
       </c>
       <c r="J301" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K301" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>2</v>
       </c>
@@ -6016,15 +6015,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>3</v>
       </c>
       <c r="B305" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>5</v>
       </c>
@@ -6032,7 +6031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -6040,7 +6039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -6048,20 +6047,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B309" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>14</v>
       </c>
@@ -6096,9 +6095,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -6110,21 +6109,21 @@
         <v>7</v>
       </c>
       <c r="E312" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F312" t="s">
         <v>22</v>
       </c>
       <c r="J312" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K312" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B313">
         <v>2000</v>
@@ -6151,15 +6150,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J313" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K313" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B314">
         <v>2000</v>
@@ -6168,7 +6167,7 @@
         <v>10</v>
       </c>
       <c r="D314" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E314" t="s">
         <v>24</v>
@@ -6186,21 +6185,21 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="J314" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K314" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>2</v>
       </c>
@@ -6208,15 +6207,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>3</v>
       </c>
       <c r="B318" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>5</v>
       </c>
@@ -6224,7 +6223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>7</v>
       </c>
@@ -6232,7 +6231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>9</v>
       </c>
@@ -6240,20 +6239,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B322" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>14</v>
       </c>
@@ -6288,9 +6287,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -6302,21 +6301,21 @@
         <v>7</v>
       </c>
       <c r="E325" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F325" t="s">
         <v>22</v>
       </c>
       <c r="J325" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K325" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B326">
         <v>0.17</v>
@@ -6343,21 +6342,21 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="J326" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K326" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B327">
         <v>125</v>
       </c>
       <c r="C327" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D327" t="s">
         <v>7</v>
@@ -6378,15 +6377,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="J327" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K327" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B328">
         <v>818</v>
@@ -6413,21 +6412,21 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J328" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K328" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>2</v>
       </c>
@@ -6435,15 +6434,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>3</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>5</v>
       </c>
@@ -6451,7 +6450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>7</v>
       </c>
@@ -6459,7 +6458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>9</v>
       </c>
@@ -6467,20 +6466,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B336" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>14</v>
       </c>
@@ -6515,9 +6514,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -6529,21 +6528,21 @@
         <v>7</v>
       </c>
       <c r="E339" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F339" t="s">
         <v>22</v>
       </c>
       <c r="J339" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K339" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B340">
         <v>97.5</v>
@@ -6570,15 +6569,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J340" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K340" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B341">
         <v>3000</v>
@@ -6605,15 +6604,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J341" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K341" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B342">
         <v>52.5</v>
@@ -6640,15 +6639,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J342" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K342" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B343">
         <v>4000</v>
@@ -6657,7 +6656,7 @@
         <v>10</v>
       </c>
       <c r="D343" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E343" t="s">
         <v>24</v>
@@ -6675,13 +6674,13 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="J343" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K343" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>0</v>
       </c>
@@ -6689,7 +6688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>2</v>
       </c>
@@ -6697,7 +6696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>3</v>
       </c>
@@ -6705,7 +6704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>5</v>
       </c>
@@ -6713,7 +6712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -6721,7 +6720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>9</v>
       </c>
@@ -6729,20 +6728,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B351" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>14</v>
       </c>
@@ -6777,7 +6776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>28</v>
       </c>
@@ -6800,12 +6799,12 @@
         <v>28</v>
       </c>
       <c r="K354" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B355">
         <v>0.81</v>
@@ -6832,15 +6831,15 @@
         <v>0.30759281954511669</v>
       </c>
       <c r="J355" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K355" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B356">
         <v>0.19</v>
@@ -6867,7 +6866,7 @@
         <v>0.31028824386255488</v>
       </c>
       <c r="J356" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K356" t="s">
         <v>31</v>

--- a/rmnd_lca/data/additional_inventories/lci-syngas.xlsx
+++ b/rmnd_lca/data/additional_inventories/lci-syngas.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="230">
   <si>
     <t>Activity</t>
   </si>
@@ -592,30 +592,12 @@
     <t>15ppm (P. Jansohn)</t>
   </si>
   <si>
-    <t>Electricity, from CC plant, 100% SNG, truck 25km, no CCS</t>
-  </si>
-  <si>
     <t>CCS Europe 2025::Wood</t>
   </si>
   <si>
-    <t>Electricity, from CC plant, 100% SNG, truck 25km, no CCS/RER U</t>
-  </si>
-  <si>
     <t>62% efficiency (P. Jansohn)</t>
   </si>
   <si>
-    <t>Electricity, from CC plant, 100% SNG, truck 25km, post, pipeline 200km, storage 1000m</t>
-  </si>
-  <si>
-    <t>Electricity, from CC plant, 100% SNG, truck 25km, post, pipeline 200km, storage 1000m/RER U</t>
-  </si>
-  <si>
-    <t>Electricity, from CC plant, 100% SNG, truck 25km, post, pipeline 400km, storage 3000m</t>
-  </si>
-  <si>
-    <t>Electricity, from CC plant, 100% SNG, truck 25km, post, pipeline 400km, storage 3000m/RER U</t>
-  </si>
-  <si>
     <t>Disposal, solvents mixture, 16.5% water, to hazardous waste incineration/CH U</t>
   </si>
   <si>
@@ -719,6 +701,27 @@
   </si>
   <si>
     <t>market for water, decarbonised</t>
+  </si>
+  <si>
+    <t>electricity, high voltage</t>
+  </si>
+  <si>
+    <t>electricity production, from CC plant, 100% SNG, truck 25km, no CCS</t>
+  </si>
+  <si>
+    <t>electricity production, from CC plant, 100% SNG, truck 25km, no CCS/RER U</t>
+  </si>
+  <si>
+    <t>electricity production, from CC plant, 100% SNG, truck 25km, post, pipeline 200km, storage 1000m</t>
+  </si>
+  <si>
+    <t>electricity production, from CC plant, 100% SNG, truck 25km, post, pipeline 200km, storage 1000m/RER U</t>
+  </si>
+  <si>
+    <t>electricity production, from CC plant, 100% SNG, truck 25km, post, pipeline 400km, storage 3000m</t>
+  </si>
+  <si>
+    <t>electricity production, from CC plant, 100% SNG, truck 25km, post, pipeline 400km, storage 3000m/RER U</t>
   </si>
 </sst>
 </file>
@@ -1105,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1157,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1224,7 +1227,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1236,7 +1239,7 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1248,7 +1251,7 @@
         <v>129</v>
       </c>
       <c r="M11" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1280,7 +1283,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1294,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1318,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1385,7 +1388,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1397,7 +1400,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -1409,7 +1412,7 @@
         <v>129</v>
       </c>
       <c r="M22" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1441,7 +1444,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1479,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -1546,7 +1549,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1558,7 +1561,7 @@
         <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -1570,7 +1573,7 @@
         <v>129</v>
       </c>
       <c r="M33" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -1602,7 +1605,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -2641,7 +2644,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B74">
         <v>0.5</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B117">
         <v>0.5</v>
@@ -4977,7 +4980,7 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B160">
         <v>0.5</v>
@@ -11231,7 +11234,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B527">
         <v>1.2300000000000001E-4</v>
@@ -11252,12 +11255,12 @@
         <v>1.2300000000000001E-4</v>
       </c>
       <c r="J527" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B528">
         <v>6.0000000000000002E-6</v>
@@ -11278,21 +11281,21 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="J528" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B529">
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="D529" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E529" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F529" t="s">
         <v>35</v>
@@ -11304,7 +11307,7 @@
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="J529" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.3">
@@ -11338,7 +11341,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -11362,15 +11365,15 @@
         <v>1</v>
       </c>
       <c r="J531" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K531" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="B532">
         <v>0.38400000000000001</v>
@@ -11394,15 +11397,15 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="J532" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K532" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B533">
         <v>8.2699999999999996E-11</v>
@@ -11426,15 +11429,15 @@
         <v>8.2699999999999996E-11</v>
       </c>
       <c r="J533" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K533" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B534">
         <v>7.4400000000000002E-10</v>
@@ -11458,15 +11461,15 @@
         <v>7.4400000000000002E-10</v>
       </c>
       <c r="J534" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K534" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B535">
         <v>8.2600000000000002E-5</v>
@@ -11490,15 +11493,15 @@
         <v>8.2600000000000002E-5</v>
       </c>
       <c r="J535" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K535" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B536">
         <v>3.3099999999999999E-10</v>
@@ -11522,15 +11525,15 @@
         <v>3.3099999999999999E-10</v>
       </c>
       <c r="J536" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K536" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B537">
         <v>5.1400000000000003E-12</v>
@@ -11554,15 +11557,15 @@
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="J537" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K537" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B538">
         <v>2.8400000000000002E-4</v>
@@ -11586,15 +11589,15 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J538" t="s">
+        <v>189</v>
+      </c>
+      <c r="K538" t="s">
         <v>195</v>
-      </c>
-      <c r="K538" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B539">
         <v>5.7899999999999997E-10</v>
@@ -11618,10 +11621,10 @@
         <v>5.7899999999999997E-10</v>
       </c>
       <c r="J539" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K539" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.3">
@@ -11650,7 +11653,7 @@
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="J540" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K540" t="s">
         <v>123</v>
@@ -11658,7 +11661,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B541">
         <v>-2.2699999999999999E-4</v>
@@ -11682,10 +11685,10 @@
         <v>2.2699999999999999E-4</v>
       </c>
       <c r="J541" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K541" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="543" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -11786,7 +11789,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B552">
         <v>1.2300000000000001E-4</v>
@@ -11807,12 +11810,12 @@
         <v>1.2300000000000001E-4</v>
       </c>
       <c r="J552" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B553">
         <v>6.0000000000000002E-6</v>
@@ -11833,21 +11836,21 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="J553" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B554">
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="D554" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E554" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F554" t="s">
         <v>35</v>
@@ -11859,7 +11862,7 @@
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="J554" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.3">
@@ -11893,7 +11896,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -11917,15 +11920,15 @@
         <v>1</v>
       </c>
       <c r="J556" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K556" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="B557">
         <v>0.38400000000000001</v>
@@ -11949,15 +11952,15 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="J557" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K557" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B558">
         <v>8.2699999999999996E-11</v>
@@ -11981,15 +11984,15 @@
         <v>8.2699999999999996E-11</v>
       </c>
       <c r="J558" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K558" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B559">
         <v>7.4400000000000002E-10</v>
@@ -12013,15 +12016,15 @@
         <v>7.4400000000000002E-10</v>
       </c>
       <c r="J559" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K559" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B560">
         <v>8.2600000000000002E-5</v>
@@ -12045,15 +12048,15 @@
         <v>8.2600000000000002E-5</v>
       </c>
       <c r="J560" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K560" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B561">
         <v>3.3099999999999999E-10</v>
@@ -12077,15 +12080,15 @@
         <v>3.3099999999999999E-10</v>
       </c>
       <c r="J561" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K561" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B562">
         <v>5.1400000000000003E-12</v>
@@ -12109,15 +12112,15 @@
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="J562" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K562" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B563">
         <v>2.8400000000000002E-4</v>
@@ -12141,15 +12144,15 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J563" t="s">
+        <v>189</v>
+      </c>
+      <c r="K563" t="s">
         <v>195</v>
-      </c>
-      <c r="K563" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B564">
         <v>5.7899999999999997E-10</v>
@@ -12173,10 +12176,10 @@
         <v>5.7899999999999997E-10</v>
       </c>
       <c r="J564" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K564" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.3">
@@ -12205,7 +12208,7 @@
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="J565" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K565" t="s">
         <v>123</v>
@@ -12213,7 +12216,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B566">
         <v>-2.2699999999999999E-4</v>
@@ -12237,10 +12240,10 @@
         <v>2.2699999999999999E-4</v>
       </c>
       <c r="J566" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K566" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
